--- a/Sample/通用配置.xlsx
+++ b/Sample/通用配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="13500"/>
+    <workbookView windowWidth="23595" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -76,42 +76,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -120,9 +84,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,6 +146,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -144,9 +183,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,67 +192,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,187 +229,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,6 +420,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -438,11 +447,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,6 +497,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -476,60 +520,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,133 +538,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>

--- a/Sample/通用配置.xlsx
+++ b/Sample/通用配置.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>##column#var</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>##column##var</t>
   </si>
   <si>
     <t>##type</t>
@@ -36,7 +36,7 @@
     <t>x2</t>
   </si>
   <si>
-    <t>string</t>
+    <t>str</t>
   </si>
   <si>
     <t>测试</t>
@@ -45,13 +45,16 @@
     <t>x3</t>
   </si>
   <si>
-    <t>array</t>
+    <t>arrayInt</t>
   </si>
   <si>
     <t>[1,0]</t>
   </si>
   <si>
     <t>x4</t>
+  </si>
+  <si>
+    <t>arrayStr</t>
   </si>
   <si>
     <t>[节点1,节点2]</t>
@@ -62,9 +65,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -84,86 +87,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,14 +119,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -192,6 +171,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -199,22 +217,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,91 +232,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,91 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,56 +431,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,8 +453,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,133 +541,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,7 +1022,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1077,10 +1080,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Sample/通用配置.xlsx
+++ b/Sample/通用配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23595" windowHeight="13500"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>##column##var</t>
   </si>
@@ -66,8 +66,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -80,6 +80,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -87,11 +95,116 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,121 +216,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,37 +232,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,145 +400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,6 +423,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,24 +461,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,17 +506,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,133 +541,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1087,7 +1087,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1103,7 +1103,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1119,7 +1119,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>